--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,6 +798,1798 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111943947</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85715</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>510</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>600352.1009737813</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7221402.427547264</v>
+      </c>
+      <c r="S3" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Maja Östlund, Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111943887</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>600485.380207623</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7221469.788948845</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111943944</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>600345.3787337081</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7221526.208431053</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Maja Östlund, Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111943841</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77268</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>600367.4767540093</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7221297.494507908</v>
+      </c>
+      <c r="S6" t="n">
+        <v>20</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111943877</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>600475.944652258</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7221498.994947547</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111943940</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>600236.5842754361</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7221446.606380152</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Maja Östlund, Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111943803</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>600424.4900947324</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7221684.100621465</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111943907</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>600408.8168718456</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7221648.141257811</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Maja Östlund, Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111943881</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>600419.1458058911</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7221629.933000125</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111943883</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>600310.5424439787</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7221357.575292435</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111943814</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>600437.2972375784</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7221630.12595264</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111943879</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>600452.4405386611</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7221544.595615291</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111943816</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>600428.2460409373</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7221623.071005571</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111943882</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>600418.6659407767</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7221432.097987156</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111943880</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>600437.3706075938</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7221453.399649266</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111943815</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Naturskogar Sorsele/Storuman, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>600430.1552666676</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7221629.040516024</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943947</v>
+        <v>111943940</v>
       </c>
       <c r="B3" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600352.1009737813</v>
+        <v>600236.5842754361</v>
       </c>
       <c r="R3" t="n">
-        <v>7221402.427547264</v>
+        <v>7221446.606380152</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943887</v>
+        <v>111943816</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600485.380207623</v>
+        <v>600428.2460409373</v>
       </c>
       <c r="R4" t="n">
-        <v>7221469.788948845</v>
+        <v>7221623.071005571</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943841</v>
+        <v>111943907</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>90682</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1152,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600367.4767540093</v>
+        <v>600408.8168718456</v>
       </c>
       <c r="R6" t="n">
-        <v>7221297.494507908</v>
+        <v>7221648.141257811</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943877</v>
+        <v>111943887</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600475.944652258</v>
+        <v>600485.380207623</v>
       </c>
       <c r="R7" t="n">
-        <v>7221498.994947547</v>
+        <v>7221469.788948845</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943940</v>
+        <v>111943881</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600236.5842754361</v>
+        <v>600419.1458058911</v>
       </c>
       <c r="R8" t="n">
-        <v>7221446.606380152</v>
+        <v>7221629.933000125</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1465,17 +1465,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943803</v>
+        <v>111943877</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600424.4900947324</v>
+        <v>600475.944652258</v>
       </c>
       <c r="R9" t="n">
-        <v>7221684.100621465</v>
+        <v>7221498.994947547</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943907</v>
+        <v>111943879</v>
       </c>
       <c r="B10" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600408.8168718456</v>
+        <v>600452.4405386611</v>
       </c>
       <c r="R10" t="n">
-        <v>7221648.141257811</v>
+        <v>7221544.595615291</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1689,17 +1689,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943881</v>
+        <v>111943815</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600419.1458058911</v>
+        <v>600430.1552666676</v>
       </c>
       <c r="R11" t="n">
-        <v>7221629.933000125</v>
+        <v>7221629.040516024</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943814</v>
+        <v>111943880</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600437.2972375784</v>
+        <v>600437.3706075938</v>
       </c>
       <c r="R13" t="n">
-        <v>7221630.12595264</v>
+        <v>7221453.399649266</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943879</v>
+        <v>111943814</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,25 +2044,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600452.4405386611</v>
+        <v>600437.2972375784</v>
       </c>
       <c r="R14" t="n">
-        <v>7221544.595615291</v>
+        <v>7221630.12595264</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943816</v>
+        <v>111943882</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,25 +2156,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600428.2460409373</v>
+        <v>600418.6659407767</v>
       </c>
       <c r="R15" t="n">
-        <v>7221623.071005571</v>
+        <v>7221432.097987156</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943882</v>
+        <v>111943803</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,25 +2268,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600418.6659407767</v>
+        <v>600424.4900947324</v>
       </c>
       <c r="R16" t="n">
-        <v>7221432.097987156</v>
+        <v>7221684.100621465</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943880</v>
+        <v>111943947</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>85715</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600437.3706075938</v>
+        <v>600352.1009737813</v>
       </c>
       <c r="R17" t="n">
-        <v>7221453.399649266</v>
+        <v>7221402.427547264</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943815</v>
+        <v>111943841</v>
       </c>
       <c r="B18" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2496,21 +2496,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600430.1552666676</v>
+        <v>600367.4767540093</v>
       </c>
       <c r="R18" t="n">
-        <v>7221629.040516024</v>
+        <v>7221297.494507908</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943940</v>
+        <v>111943814</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>90682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600236.5842754361</v>
+        <v>600437.2972375784</v>
       </c>
       <c r="R3" t="n">
-        <v>7221446.606380152</v>
+        <v>7221630.12595264</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -905,17 +905,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943816</v>
+        <v>111943887</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600428.2460409373</v>
+        <v>600485.380207623</v>
       </c>
       <c r="R4" t="n">
-        <v>7221623.071005571</v>
+        <v>7221469.788948845</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943944</v>
+        <v>111943907</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600345.3787337081</v>
+        <v>600408.8168718456</v>
       </c>
       <c r="R5" t="n">
-        <v>7221526.208431053</v>
+        <v>7221648.141257811</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943907</v>
+        <v>111943883</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600408.8168718456</v>
+        <v>600310.5424439787</v>
       </c>
       <c r="R6" t="n">
-        <v>7221648.141257811</v>
+        <v>7221357.575292435</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943887</v>
+        <v>111943879</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600485.380207623</v>
+        <v>600452.4405386611</v>
       </c>
       <c r="R7" t="n">
-        <v>7221469.788948845</v>
+        <v>7221544.595615291</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943881</v>
+        <v>111943841</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600419.1458058911</v>
+        <v>600367.4767540093</v>
       </c>
       <c r="R8" t="n">
-        <v>7221629.933000125</v>
+        <v>7221297.494507908</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943877</v>
+        <v>111943944</v>
       </c>
       <c r="B9" t="n">
         <v>90666</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600475.944652258</v>
+        <v>600345.3787337081</v>
       </c>
       <c r="R9" t="n">
-        <v>7221498.994947547</v>
+        <v>7221526.208431053</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1577,14 +1577,14 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943879</v>
+        <v>111943882</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600452.4405386611</v>
+        <v>600418.6659407767</v>
       </c>
       <c r="R10" t="n">
-        <v>7221544.595615291</v>
+        <v>7221432.097987156</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943815</v>
+        <v>111943940</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600430.1552666676</v>
+        <v>600236.5842754361</v>
       </c>
       <c r="R11" t="n">
-        <v>7221629.040516024</v>
+        <v>7221446.606380152</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943883</v>
+        <v>111943947</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>85715</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1820,25 +1820,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>510</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600310.5424439787</v>
+        <v>600352.1009737813</v>
       </c>
       <c r="R12" t="n">
-        <v>7221357.575292435</v>
+        <v>7221402.427547264</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1913,14 +1913,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943880</v>
+        <v>111943877</v>
       </c>
       <c r="B13" t="n">
         <v>90666</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600437.3706075938</v>
+        <v>600475.944652258</v>
       </c>
       <c r="R13" t="n">
-        <v>7221453.399649266</v>
+        <v>7221498.994947547</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943814</v>
+        <v>111943881</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,25 +2044,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600437.2972375784</v>
+        <v>600419.1458058911</v>
       </c>
       <c r="R14" t="n">
-        <v>7221630.12595264</v>
+        <v>7221629.933000125</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943882</v>
+        <v>111943803</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,25 +2156,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600418.6659407767</v>
+        <v>600424.4900947324</v>
       </c>
       <c r="R15" t="n">
-        <v>7221432.097987156</v>
+        <v>7221684.100621465</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943803</v>
+        <v>111943816</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>90682</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2272,21 +2272,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600424.4900947324</v>
+        <v>600428.2460409373</v>
       </c>
       <c r="R16" t="n">
-        <v>7221684.100621465</v>
+        <v>7221623.071005571</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943947</v>
+        <v>111943815</v>
       </c>
       <c r="B17" t="n">
-        <v>85715</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2384,21 +2384,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600352.1009737813</v>
+        <v>600430.1552666676</v>
       </c>
       <c r="R17" t="n">
-        <v>7221402.427547264</v>
+        <v>7221629.040516024</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2473,17 +2473,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943841</v>
+        <v>111943880</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,25 +2492,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600367.4767540093</v>
+        <v>600437.3706075938</v>
       </c>
       <c r="R18" t="n">
-        <v>7221297.494507908</v>
+        <v>7221453.399649266</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943814</v>
+        <v>111943881</v>
       </c>
       <c r="B3" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600437.2972375784</v>
+        <v>600419.1458058911</v>
       </c>
       <c r="R3" t="n">
-        <v>7221630.12595264</v>
+        <v>7221629.933000125</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943887</v>
+        <v>111943814</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600485.380207623</v>
+        <v>600437.2972375784</v>
       </c>
       <c r="R4" t="n">
-        <v>7221469.788948845</v>
+        <v>7221630.12595264</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943907</v>
+        <v>111943883</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600408.8168718456</v>
+        <v>600310.5424439787</v>
       </c>
       <c r="R5" t="n">
-        <v>7221648.141257811</v>
+        <v>7221357.575292435</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1129,14 +1129,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943883</v>
+        <v>111943882</v>
       </c>
       <c r="B6" t="n">
         <v>90666</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600310.5424439787</v>
+        <v>600418.6659407767</v>
       </c>
       <c r="R6" t="n">
-        <v>7221357.575292435</v>
+        <v>7221432.097987156</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943879</v>
+        <v>111943880</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600452.4405386611</v>
+        <v>600437.3706075938</v>
       </c>
       <c r="R7" t="n">
-        <v>7221544.595615291</v>
+        <v>7221453.399649266</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943841</v>
+        <v>111943879</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600367.4767540093</v>
+        <v>600452.4405386611</v>
       </c>
       <c r="R8" t="n">
-        <v>7221297.494507908</v>
+        <v>7221544.595615291</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943944</v>
+        <v>111943803</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600345.3787337081</v>
+        <v>600424.4900947324</v>
       </c>
       <c r="R9" t="n">
-        <v>7221526.208431053</v>
+        <v>7221684.100621465</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1577,17 +1577,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943882</v>
+        <v>111943947</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>85715</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>510</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600418.6659407767</v>
+        <v>600352.1009737813</v>
       </c>
       <c r="R10" t="n">
-        <v>7221432.097987156</v>
+        <v>7221402.427547264</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1689,17 +1689,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943940</v>
+        <v>111943877</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600236.5842754361</v>
+        <v>600475.944652258</v>
       </c>
       <c r="R11" t="n">
-        <v>7221446.606380152</v>
+        <v>7221498.994947547</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943947</v>
+        <v>111943816</v>
       </c>
       <c r="B12" t="n">
-        <v>85715</v>
+        <v>90682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,21 +1824,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>510</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600352.1009737813</v>
+        <v>600428.2460409373</v>
       </c>
       <c r="R12" t="n">
-        <v>7221402.427547264</v>
+        <v>7221623.071005571</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1913,17 +1913,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943877</v>
+        <v>111943940</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600475.944652258</v>
+        <v>600236.5842754361</v>
       </c>
       <c r="R13" t="n">
-        <v>7221498.994947547</v>
+        <v>7221446.606380152</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943881</v>
+        <v>111943887</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,25 +2044,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600419.1458058911</v>
+        <v>600485.380207623</v>
       </c>
       <c r="R14" t="n">
-        <v>7221629.933000125</v>
+        <v>7221469.788948845</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943803</v>
+        <v>111943815</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600424.4900947324</v>
+        <v>600430.1552666676</v>
       </c>
       <c r="R15" t="n">
-        <v>7221684.100621465</v>
+        <v>7221629.040516024</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943816</v>
+        <v>111943944</v>
       </c>
       <c r="B16" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,25 +2268,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600428.2460409373</v>
+        <v>600345.3787337081</v>
       </c>
       <c r="R16" t="n">
-        <v>7221623.071005571</v>
+        <v>7221526.208431053</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2361,17 +2361,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943815</v>
+        <v>111943841</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2384,21 +2384,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600430.1552666676</v>
+        <v>600367.4767540093</v>
       </c>
       <c r="R17" t="n">
-        <v>7221629.040516024</v>
+        <v>7221297.494507908</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943880</v>
+        <v>111943907</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,25 +2492,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600437.3706075938</v>
+        <v>600408.8168718456</v>
       </c>
       <c r="R18" t="n">
-        <v>7221453.399649266</v>
+        <v>7221648.141257811</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943814</v>
+        <v>111943944</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600437.2972375784</v>
+        <v>600345.3787337081</v>
       </c>
       <c r="R4" t="n">
-        <v>7221630.12595264</v>
+        <v>7221526.208431053</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943883</v>
+        <v>111943815</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600310.5424439787</v>
+        <v>600430.1552666676</v>
       </c>
       <c r="R5" t="n">
-        <v>7221357.575292435</v>
+        <v>7221629.040516024</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943882</v>
+        <v>111943841</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,25 +1148,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600418.6659407767</v>
+        <v>600367.4767540093</v>
       </c>
       <c r="R6" t="n">
-        <v>7221432.097987156</v>
+        <v>7221297.494507908</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943880</v>
+        <v>111943877</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600437.3706075938</v>
+        <v>600475.944652258</v>
       </c>
       <c r="R7" t="n">
-        <v>7221453.399649266</v>
+        <v>7221498.994947547</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943879</v>
+        <v>111943880</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600452.4405386611</v>
+        <v>600437.3706075938</v>
       </c>
       <c r="R8" t="n">
-        <v>7221544.595615291</v>
+        <v>7221453.399649266</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943803</v>
+        <v>111943907</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,21 +1488,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600424.4900947324</v>
+        <v>600408.8168718456</v>
       </c>
       <c r="R9" t="n">
-        <v>7221684.100621465</v>
+        <v>7221648.141257811</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1577,17 +1577,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943947</v>
+        <v>111943887</v>
       </c>
       <c r="B10" t="n">
-        <v>85715</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>510</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600352.1009737813</v>
+        <v>600485.380207623</v>
       </c>
       <c r="R10" t="n">
-        <v>7221402.427547264</v>
+        <v>7221469.788948845</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1689,17 +1689,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943877</v>
+        <v>111943816</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600475.944652258</v>
+        <v>600428.2460409373</v>
       </c>
       <c r="R11" t="n">
-        <v>7221498.994947547</v>
+        <v>7221623.071005571</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943816</v>
+        <v>111943947</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>85715</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,21 +1824,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>510</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600428.2460409373</v>
+        <v>600352.1009737813</v>
       </c>
       <c r="R12" t="n">
-        <v>7221623.071005571</v>
+        <v>7221402.427547264</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1913,17 +1913,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943940</v>
+        <v>111943803</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1936,21 +1936,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600236.5842754361</v>
+        <v>600424.4900947324</v>
       </c>
       <c r="R13" t="n">
-        <v>7221446.606380152</v>
+        <v>7221684.100621465</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943887</v>
+        <v>111943940</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,21 +2048,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600485.380207623</v>
+        <v>600236.5842754361</v>
       </c>
       <c r="R14" t="n">
-        <v>7221469.788948845</v>
+        <v>7221446.606380152</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2137,14 +2137,14 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943815</v>
+        <v>111943814</v>
       </c>
       <c r="B15" t="n">
         <v>90682</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600430.1552666676</v>
+        <v>600437.2972375784</v>
       </c>
       <c r="R15" t="n">
-        <v>7221629.040516024</v>
+        <v>7221630.12595264</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943944</v>
+        <v>111943882</v>
       </c>
       <c r="B16" t="n">
         <v>90666</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600345.3787337081</v>
+        <v>600418.6659407767</v>
       </c>
       <c r="R16" t="n">
-        <v>7221526.208431053</v>
+        <v>7221432.097987156</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2361,17 +2361,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943841</v>
+        <v>111943879</v>
       </c>
       <c r="B17" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600367.4767540093</v>
+        <v>600452.4405386611</v>
       </c>
       <c r="R17" t="n">
-        <v>7221297.494507908</v>
+        <v>7221544.595615291</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943907</v>
+        <v>111943883</v>
       </c>
       <c r="B18" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,25 +2492,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600408.8168718456</v>
+        <v>600310.5424439787</v>
       </c>
       <c r="R18" t="n">
-        <v>7221648.141257811</v>
+        <v>7221357.575292435</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943881</v>
+        <v>111943803</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600419.1458058911</v>
+        <v>600424.4900947324</v>
       </c>
       <c r="R3" t="n">
-        <v>7221629.933000125</v>
+        <v>7221684.100621465</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943944</v>
+        <v>111943816</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600345.3787337081</v>
+        <v>600428.2460409373</v>
       </c>
       <c r="R4" t="n">
-        <v>7221526.208431053</v>
+        <v>7221623.071005571</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943815</v>
+        <v>111943881</v>
       </c>
       <c r="B5" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600430.1552666676</v>
+        <v>600419.1458058911</v>
       </c>
       <c r="R5" t="n">
-        <v>7221629.040516024</v>
+        <v>7221629.933000125</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943841</v>
+        <v>111943815</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>90682</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1152,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600367.4767540093</v>
+        <v>600430.1552666676</v>
       </c>
       <c r="R6" t="n">
-        <v>7221297.494507908</v>
+        <v>7221629.040516024</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943877</v>
+        <v>111943879</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600475.944652258</v>
+        <v>600452.4405386611</v>
       </c>
       <c r="R7" t="n">
-        <v>7221498.994947547</v>
+        <v>7221544.595615291</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943880</v>
+        <v>111943841</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1372,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600437.3706075938</v>
+        <v>600367.4767540093</v>
       </c>
       <c r="R8" t="n">
-        <v>7221453.399649266</v>
+        <v>7221297.494507908</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943907</v>
+        <v>111943880</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600408.8168718456</v>
+        <v>600437.3706075938</v>
       </c>
       <c r="R9" t="n">
-        <v>7221648.141257811</v>
+        <v>7221453.399649266</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1577,17 +1577,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943887</v>
+        <v>111943947</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>85715</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>510</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600485.380207623</v>
+        <v>600352.1009737813</v>
       </c>
       <c r="R10" t="n">
-        <v>7221469.788948845</v>
+        <v>7221402.427547264</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1689,17 +1689,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943816</v>
+        <v>111943940</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600428.2460409373</v>
+        <v>600236.5842754361</v>
       </c>
       <c r="R11" t="n">
-        <v>7221623.071005571</v>
+        <v>7221446.606380152</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943947</v>
+        <v>111943814</v>
       </c>
       <c r="B12" t="n">
-        <v>85715</v>
+        <v>90682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,21 +1824,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>510</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600352.1009737813</v>
+        <v>600437.2972375784</v>
       </c>
       <c r="R12" t="n">
-        <v>7221402.427547264</v>
+        <v>7221630.12595264</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1913,17 +1913,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943803</v>
+        <v>111943877</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600424.4900947324</v>
+        <v>600475.944652258</v>
       </c>
       <c r="R13" t="n">
-        <v>7221684.100621465</v>
+        <v>7221498.994947547</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943940</v>
+        <v>111943882</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2044,25 +2044,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600236.5842754361</v>
+        <v>600418.6659407767</v>
       </c>
       <c r="R14" t="n">
-        <v>7221446.606380152</v>
+        <v>7221432.097987156</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943814</v>
+        <v>111943944</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,25 +2156,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600437.2972375784</v>
+        <v>600345.3787337081</v>
       </c>
       <c r="R15" t="n">
-        <v>7221630.12595264</v>
+        <v>7221526.208431053</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2249,17 +2249,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943882</v>
+        <v>111943907</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,25 +2268,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600418.6659407767</v>
+        <v>600408.8168718456</v>
       </c>
       <c r="R16" t="n">
-        <v>7221432.097987156</v>
+        <v>7221648.141257811</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2361,17 +2361,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943879</v>
+        <v>111943887</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2380,25 +2380,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600452.4405386611</v>
+        <v>600485.380207623</v>
       </c>
       <c r="R17" t="n">
-        <v>7221544.595615291</v>
+        <v>7221469.788948845</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943803</v>
+        <v>111943877</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600424.4900947324</v>
+        <v>600476</v>
       </c>
       <c r="R3" t="n">
-        <v>7221684.100621465</v>
+        <v>7221499</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -873,19 +873,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943816</v>
+        <v>111943803</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600428.2460409373</v>
+        <v>600424</v>
       </c>
       <c r="R4" t="n">
-        <v>7221623.071005571</v>
+        <v>7221684</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -985,19 +975,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,7 +1004,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943881</v>
+        <v>111943882</v>
       </c>
       <c r="B5" t="n">
         <v>90666</v>
@@ -1064,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600419.1458058911</v>
+        <v>600419</v>
       </c>
       <c r="R5" t="n">
-        <v>7221629.933000125</v>
+        <v>7221432</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1097,19 +1077,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1136,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943815</v>
+        <v>111943841</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,21 +1122,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1146,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600430.1552666676</v>
+        <v>600367</v>
       </c>
       <c r="R6" t="n">
-        <v>7221629.040516024</v>
+        <v>7221297</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1209,19 +1179,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,7 +1208,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943879</v>
+        <v>111943881</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1288,10 +1248,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600452.4405386611</v>
+        <v>600419</v>
       </c>
       <c r="R7" t="n">
-        <v>7221544.595615291</v>
+        <v>7221630</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1321,19 +1281,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1360,10 +1310,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943841</v>
+        <v>111943944</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,25 +1322,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1400,10 +1350,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600367.4767540093</v>
+        <v>600345</v>
       </c>
       <c r="R8" t="n">
-        <v>7221297.494507908</v>
+        <v>7221526</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1433,19 +1383,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1465,17 +1405,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943880</v>
+        <v>111943887</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1424,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1452,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600437.3706075938</v>
+        <v>600485</v>
       </c>
       <c r="R9" t="n">
-        <v>7221453.399649266</v>
+        <v>7221470</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1545,19 +1485,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1514,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943947</v>
+        <v>111943940</v>
       </c>
       <c r="B10" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1530,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1554,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600352.1009737813</v>
+        <v>600237</v>
       </c>
       <c r="R10" t="n">
-        <v>7221402.427547264</v>
+        <v>7221447</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1657,19 +1587,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1696,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943940</v>
+        <v>111943907</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,21 +1632,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1656,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600236.5842754361</v>
+        <v>600409</v>
       </c>
       <c r="R11" t="n">
-        <v>7221446.606380152</v>
+        <v>7221648</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1769,19 +1689,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1808,10 +1718,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943814</v>
+        <v>111943879</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1820,25 +1730,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1758,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600437.2972375784</v>
+        <v>600452</v>
       </c>
       <c r="R12" t="n">
-        <v>7221630.12595264</v>
+        <v>7221545</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1881,19 +1791,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1920,10 +1820,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943877</v>
+        <v>111943815</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1932,25 +1832,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1860,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600475.944652258</v>
+        <v>600430</v>
       </c>
       <c r="R13" t="n">
-        <v>7221498.994947547</v>
+        <v>7221629</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -1993,19 +1893,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2032,7 +1922,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943882</v>
+        <v>111943880</v>
       </c>
       <c r="B14" t="n">
         <v>90666</v>
@@ -2072,10 +1962,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600418.6659407767</v>
+        <v>600437</v>
       </c>
       <c r="R14" t="n">
-        <v>7221432.097987156</v>
+        <v>7221453</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2105,19 +1995,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2144,10 +2024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943944</v>
+        <v>111943947</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>85715</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2156,25 +2036,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>510</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2184,10 +2064,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600345.3787337081</v>
+        <v>600352</v>
       </c>
       <c r="R15" t="n">
-        <v>7221526.208431053</v>
+        <v>7221402</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2217,19 +2097,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2256,10 +2126,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943907</v>
+        <v>111943883</v>
       </c>
       <c r="B16" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2268,25 +2138,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2296,10 +2166,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600408.8168718456</v>
+        <v>600311</v>
       </c>
       <c r="R16" t="n">
-        <v>7221648.141257811</v>
+        <v>7221358</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2329,19 +2199,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,17 +2221,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943887</v>
+        <v>111943814</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2384,21 +2244,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2408,10 +2268,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600485.380207623</v>
+        <v>600437</v>
       </c>
       <c r="R17" t="n">
-        <v>7221469.788948845</v>
+        <v>7221630</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2441,19 +2301,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2480,10 +2330,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943883</v>
+        <v>111943816</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,25 +2342,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2520,10 +2370,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600310.5424439787</v>
+        <v>600428</v>
       </c>
       <c r="R18" t="n">
-        <v>7221357.575292435</v>
+        <v>7221623</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2553,19 +2403,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943877</v>
+        <v>111943947</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>85836</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600476</v>
+        <v>600352</v>
       </c>
       <c r="R3" t="n">
-        <v>7221499</v>
+        <v>7221402</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -895,17 +895,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943803</v>
+        <v>111943816</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>90816</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600424</v>
+        <v>600428</v>
       </c>
       <c r="R4" t="n">
-        <v>7221684</v>
+        <v>7221623</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943882</v>
+        <v>111943877</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600419</v>
+        <v>600476</v>
       </c>
       <c r="R5" t="n">
-        <v>7221432</v>
+        <v>7221499</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943841</v>
+        <v>111943944</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>90800</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1118,25 +1118,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600367</v>
+        <v>600345</v>
       </c>
       <c r="R6" t="n">
-        <v>7221297</v>
+        <v>7221526</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943881</v>
+        <v>111943940</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>77636</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1220,25 +1220,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600419</v>
+        <v>600237</v>
       </c>
       <c r="R7" t="n">
-        <v>7221630</v>
+        <v>7221447</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943944</v>
+        <v>111943803</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>89539</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1322,25 +1322,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600345</v>
+        <v>600424</v>
       </c>
       <c r="R8" t="n">
-        <v>7221526</v>
+        <v>7221684</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
         <v>111943887</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943940</v>
+        <v>111943879</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90800</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1526,25 +1526,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600237</v>
+        <v>600452</v>
       </c>
       <c r="R10" t="n">
-        <v>7221447</v>
+        <v>7221545</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1609,17 +1609,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943907</v>
+        <v>111943881</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1628,25 +1628,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600409</v>
+        <v>600419</v>
       </c>
       <c r="R11" t="n">
-        <v>7221648</v>
+        <v>7221630</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943879</v>
+        <v>111943814</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90816</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1730,25 +1730,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600452</v>
+        <v>600437</v>
       </c>
       <c r="R12" t="n">
-        <v>7221545</v>
+        <v>7221630</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943815</v>
+        <v>111943907</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600430</v>
+        <v>600409</v>
       </c>
       <c r="R13" t="n">
-        <v>7221629</v>
+        <v>7221648</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -1915,17 +1915,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943880</v>
+        <v>111943883</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600437</v>
+        <v>600311</v>
       </c>
       <c r="R14" t="n">
-        <v>7221453</v>
+        <v>7221358</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943947</v>
+        <v>111943815</v>
       </c>
       <c r="B15" t="n">
-        <v>85715</v>
+        <v>90816</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>510</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600352</v>
+        <v>600430</v>
       </c>
       <c r="R15" t="n">
-        <v>7221402</v>
+        <v>7221629</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943883</v>
+        <v>111943882</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600311</v>
+        <v>600419</v>
       </c>
       <c r="R16" t="n">
-        <v>7221358</v>
+        <v>7221432</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943814</v>
+        <v>111943880</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>90800</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2240,25 +2240,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
         <v>600437</v>
       </c>
       <c r="R17" t="n">
-        <v>7221630</v>
+        <v>7221453</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943816</v>
+        <v>111943841</v>
       </c>
       <c r="B18" t="n">
-        <v>90682</v>
+        <v>77389</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2346,21 +2346,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600428</v>
+        <v>600367</v>
       </c>
       <c r="R18" t="n">
-        <v>7221623</v>
+        <v>7221297</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>

--- a/artfynd/A 28001-2023.xlsx
+++ b/artfynd/A 28001-2023.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111943947</v>
+        <v>111943940</v>
       </c>
       <c r="B3" t="n">
-        <v>85836</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,21 +816,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600352</v>
+        <v>600237</v>
       </c>
       <c r="R3" t="n">
-        <v>7221402</v>
+        <v>7221447</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111943816</v>
+        <v>111943877</v>
       </c>
       <c r="B4" t="n">
-        <v>90816</v>
+        <v>90814</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -914,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600428</v>
+        <v>600476</v>
       </c>
       <c r="R4" t="n">
-        <v>7221623</v>
+        <v>7221499</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943877</v>
+        <v>111943815</v>
       </c>
       <c r="B5" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1016,25 +1016,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600476</v>
+        <v>600430</v>
       </c>
       <c r="R5" t="n">
-        <v>7221499</v>
+        <v>7221629</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943944</v>
+        <v>111943803</v>
       </c>
       <c r="B6" t="n">
-        <v>90800</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1118,25 +1118,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600345</v>
+        <v>600424</v>
       </c>
       <c r="R6" t="n">
-        <v>7221526</v>
+        <v>7221684</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943940</v>
+        <v>111943841</v>
       </c>
       <c r="B7" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1224,21 +1224,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600237</v>
+        <v>600367</v>
       </c>
       <c r="R7" t="n">
-        <v>7221447</v>
+        <v>7221297</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Maja Östlund, Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943803</v>
+        <v>111943887</v>
       </c>
       <c r="B8" t="n">
-        <v>89539</v>
+        <v>90808</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1326,21 +1326,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600424</v>
+        <v>600485</v>
       </c>
       <c r="R8" t="n">
-        <v>7221684</v>
+        <v>7221470</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943887</v>
+        <v>111943881</v>
       </c>
       <c r="B9" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600485</v>
+        <v>600419</v>
       </c>
       <c r="R9" t="n">
-        <v>7221470</v>
+        <v>7221630</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943879</v>
+        <v>111943816</v>
       </c>
       <c r="B10" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1526,25 +1526,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>600452</v>
+        <v>600428</v>
       </c>
       <c r="R10" t="n">
-        <v>7221545</v>
+        <v>7221623</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943881</v>
+        <v>111943944</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>600419</v>
+        <v>600345</v>
       </c>
       <c r="R11" t="n">
-        <v>7221630</v>
+        <v>7221526</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943814</v>
+        <v>111943882</v>
       </c>
       <c r="B12" t="n">
-        <v>90816</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1730,25 +1730,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>600437</v>
+        <v>600419</v>
       </c>
       <c r="R12" t="n">
-        <v>7221630</v>
+        <v>7221432</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943907</v>
+        <v>111943947</v>
       </c>
       <c r="B13" t="n">
-        <v>90816</v>
+        <v>85850</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1836,21 +1836,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>600409</v>
+        <v>600352</v>
       </c>
       <c r="R13" t="n">
-        <v>7221648</v>
+        <v>7221402</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943883</v>
+        <v>111943814</v>
       </c>
       <c r="B14" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1934,25 +1934,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>600311</v>
+        <v>600437</v>
       </c>
       <c r="R14" t="n">
-        <v>7221358</v>
+        <v>7221630</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943815</v>
+        <v>111943880</v>
       </c>
       <c r="B15" t="n">
-        <v>90816</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>600430</v>
+        <v>600437</v>
       </c>
       <c r="R15" t="n">
-        <v>7221629</v>
+        <v>7221453</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943882</v>
+        <v>111943883</v>
       </c>
       <c r="B16" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>600419</v>
+        <v>600311</v>
       </c>
       <c r="R16" t="n">
-        <v>7221432</v>
+        <v>7221358</v>
       </c>
       <c r="S16" t="n">
         <v>20</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943880</v>
+        <v>111943879</v>
       </c>
       <c r="B17" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>600437</v>
+        <v>600452</v>
       </c>
       <c r="R17" t="n">
-        <v>7221453</v>
+        <v>7221545</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111943841</v>
+        <v>111943907</v>
       </c>
       <c r="B18" t="n">
-        <v>77389</v>
+        <v>90830</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2346,21 +2346,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>2059</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>600367</v>
+        <v>600409</v>
       </c>
       <c r="R18" t="n">
-        <v>7221297</v>
+        <v>7221648</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Maja Östlund, Simon Mattsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
